--- a/asset/csv/5.xlsx
+++ b/asset/csv/5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC4A250-8EC1-4600-B6E5-5BCFA0ED0C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277A895-572E-416B-A5DD-62A07D777144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,13 +523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戦国時代</t>
-    <rPh sb="0" eb="4">
-      <t>センゴクジダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前403-前221</t>
     <rPh sb="0" eb="1">
       <t>マエ</t>
@@ -612,16 +605,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【農業・商工業】</t>
-    <rPh sb="1" eb="3">
-      <t>ノウギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ショウコウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青銅貨幣の普及→商工業の発展</t>
     <rPh sb="0" eb="4">
       <t>セイドウカヘイ</t>
@@ -716,13 +699,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【諸子百家】</t>
-    <rPh sb="1" eb="5">
-      <t>ショシヒャッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -815,6 +791,39 @@
     </rPh>
     <rPh sb="6" eb="10">
       <t>シュンジュウセンゴク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦国時代（概要）</t>
+    <rPh sb="0" eb="4">
+      <t>センゴクジダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦国時代（農業・商工業）</t>
+    <rPh sb="0" eb="4">
+      <t>センゴクジダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ノウギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショウコウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦国時代（諸子百家）</t>
+    <rPh sb="0" eb="4">
+      <t>センゴクジダイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ショシヒャッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1141,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.875" defaultRowHeight="18.75"/>
@@ -1154,9 +1163,9 @@
     <col min="2" max="8" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16 16384:16384">
+    <row r="1" spans="1:10 16384:16384">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1189,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16 16384:16384">
+    <row r="2" spans="1:10 16384:16384">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16 16384:16384">
+    <row r="3" spans="1:10 16384:16384">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16 16384:16384">
+    <row r="4" spans="1:10 16384:16384">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16 16384:16384">
+    <row r="5" spans="1:10 16384:16384">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16 16384:16384">
+    <row r="6" spans="1:10 16384:16384">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16 16384:16384">
+    <row r="7" spans="1:10 16384:16384">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16 16384:16384">
+    <row r="8" spans="1:10 16384:16384">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1299,7 +1308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16 16384:16384">
+    <row r="9" spans="1:10 16384:16384">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16 16384:16384">
+    <row r="10" spans="1:10 16384:16384">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1330,54 +1339,58 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16 16384:16384">
+    <row r="11" spans="1:10 16384:16384">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:10 16384:16384">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="13" spans="1:10 16384:16384">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="K11" t="s">
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="L11" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="M11" t="s">
+      <c r="E13" t="s">
         <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/asset/csv/5.xlsx
+++ b/asset/csv/5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277A895-572E-416B-A5DD-62A07D777144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1AA80-99DA-4241-B2A3-8FFD697104D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -732,56 +732,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>法家：商鞅・韓非・李斯→法による信賞必罰</t>
-    <rPh sb="0" eb="2">
-      <t>ホウカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウオウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>シンショウヒツバツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>墨家・陰陽家・兵家・名家・農家・縦横家 等</t>
-    <rPh sb="0" eb="2">
-      <t>ボッカ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>オンミョウカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘイカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>メイカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ノウカ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ジュウオウカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中国（古代～春秋戦国）</t>
     <rPh sb="0" eb="2">
       <t>チュウゴク</t>
@@ -824,6 +774,85 @@
     </rPh>
     <rPh sb="5" eb="9">
       <t>ショシヒャッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法家：商鞅・韓非・李斯→法で信賞必罰</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウオウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シンショウヒツバツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>墨家・陰陽家・兵家・名家・農家・縦横家</t>
+    <rPh sb="0" eb="2">
+      <t>ボッカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>オンミョウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ノウカ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジュウオウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前5000-前3000年頃</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前2500-前2000年頃</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1154,7 +1183,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.875" defaultRowHeight="18.75"/>
@@ -1165,7 +1194,7 @@
   <sheetData>
     <row r="1" spans="1:10 16384:16384">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1217,15 +1246,18 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1234,15 +1266,18 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1341,7 +1376,7 @@
     </row>
     <row r="11" spans="1:10 16384:16384">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1355,7 +1390,7 @@
     </row>
     <row r="12" spans="1:10 16384:16384">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1378,7 +1413,7 @@
     </row>
     <row r="13" spans="1:10 16384:16384">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -1387,10 +1422,10 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
